--- a/自考/资料整理/time.xlsx
+++ b/自考/资料整理/time.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Archive\自考\资料整理\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E22463-5023-483A-8379-DC64145AC951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1104" windowWidth="14052" windowHeight="11016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1104" windowWidth="14052" windowHeight="11016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-4-10" sheetId="1" r:id="rId1"/>
     <sheet name="2020-01" sheetId="3" r:id="rId2"/>
     <sheet name="2020-08" sheetId="4" r:id="rId3"/>
-    <sheet name="书费" sheetId="2" r:id="rId4"/>
+    <sheet name="202104" sheetId="5" r:id="rId4"/>
+    <sheet name="书费" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="134">
   <si>
     <t>专业代码/名称</t>
   </si>
@@ -667,12 +662,156 @@
     <t>12656</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>上午（ 9:00 - 11:30）</t>
+  </si>
+  <si>
+    <t>下午 （14:30 - 17:00）</t>
+  </si>
+  <si>
+    <t>4 月10日（周六）</t>
+  </si>
+  <si>
+    <t>4 月11 日（周日）</t>
+  </si>
+  <si>
+    <r>
+      <t>英语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高级语言程序设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>电子技术基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高等数学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,8 +935,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,6 +993,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1267,7 +1426,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1422,12 +1581,132 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1437,69 +1716,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1534,6 +1750,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,94 +1788,80 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{AC35AFB3-0892-40E5-906E-8735EB3743A1}"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1905,7 +2134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -1934,18 +2163,18 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
@@ -1954,22 +2183,22 @@
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="62" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="62" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11"/>
@@ -2006,28 +2235,28 @@
       <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="89" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2038,47 +2267,47 @@
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="66"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="66"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="73"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="66"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="73"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="17" t="s">
         <v>24</v>
       </c>
@@ -2108,7 +2337,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" s="74"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="18" t="s">
         <v>33</v>
       </c>
@@ -2144,18 +2373,18 @@
       <c r="B13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="62" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
@@ -2164,22 +2393,22 @@
       <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="62" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="62" t="s">
+      <c r="F14" s="75"/>
+      <c r="G14" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="62" t="s">
+      <c r="H14" s="75"/>
+      <c r="I14" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="64"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="1:10" ht="14.4" thickBot="1">
       <c r="A15" s="11"/>
@@ -2213,7 +2442,7 @@
       <c r="A16" s="14">
         <v>610201</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="79" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -2245,7 +2474,7 @@
       <c r="A17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="27" t="s">
         <v>53</v>
       </c>
@@ -2272,10 +2501,10 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="27" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2527,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24">
-      <c r="A19" s="73"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="33">
         <v>12656</v>
       </c>
@@ -2322,8 +2551,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="73"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2338,8 +2567,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -2360,28 +2589,28 @@
       <c r="B22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="91" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2392,47 +2621,47 @@
       <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="68"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="92"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="68"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="92"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="73"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="69"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="24">
-      <c r="A26" s="73"/>
+      <c r="A26" s="77"/>
       <c r="B26" s="17" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2691,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="74"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
@@ -2486,18 +2715,18 @@
       <c r="B30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="62" t="s">
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="64"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
@@ -2506,22 +2735,22 @@
       <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="62" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="62" t="s">
+      <c r="F31" s="75"/>
+      <c r="G31" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="62" t="s">
+      <c r="H31" s="75"/>
+      <c r="I31" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="64"/>
+      <c r="J31" s="75"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="11"/>
@@ -2555,7 +2784,7 @@
       <c r="A33" s="14">
         <v>610201</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="79" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -2587,7 +2816,7 @@
       <c r="A34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="17" t="s">
         <v>53</v>
       </c>
@@ -2614,10 +2843,10 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="17" t="s">
         <v>60</v>
       </c>
@@ -2644,8 +2873,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="24">
-      <c r="A36" s="73"/>
-      <c r="B36" s="53"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="17" t="s">
         <v>62</v>
       </c>
@@ -2668,8 +2897,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="36">
-      <c r="A37" s="74"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -2690,28 +2919,28 @@
       <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="52" t="s">
+      <c r="I38" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="65" t="s">
+      <c r="J38" s="89" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2722,47 +2951,47 @@
       <c r="B39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="66"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="76" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="66"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="73"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="66"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="73"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="17" t="s">
         <v>24</v>
       </c>
@@ -2792,7 +3021,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="36">
-      <c r="A43" s="74"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="18" t="s">
         <v>33</v>
       </c>
@@ -2811,17 +3040,28 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J38:J41"/>
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="C4:C7"/>
@@ -2838,28 +3078,17 @@
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2868,7 +3097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C0C67F-1130-4BCF-B957-D777D61AEE32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2891,62 +3120,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86" t="s">
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="88"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="85"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87" t="s">
+      <c r="D3" s="106"/>
+      <c r="E3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87" t="s">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="89"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
@@ -2973,10 +3202,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="98" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -3005,8 +3234,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="49" t="s">
         <v>103</v>
       </c>
@@ -3033,8 +3262,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="82"/>
-      <c r="B7" s="79"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="43" t="s">
         <v>98</v>
       </c>
@@ -3057,8 +3286,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="21.6">
-      <c r="A8" s="82"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="43">
         <v>12656</v>
       </c>
@@ -3081,8 +3310,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="82"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
@@ -3097,8 +3326,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
@@ -3135,11 +3364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619DF8E9-0C49-46A1-B863-1C62F61006C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3148,217 +3377,217 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.2" thickBot="1">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:10" ht="14.4" thickBot="1">
+      <c r="A1" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="110" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="111"/>
-    </row>
-    <row r="2" spans="1:10" ht="22.2" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="94" t="s">
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" thickBot="1">
+      <c r="A2" s="113"/>
+      <c r="B2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="110" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="111"/>
-      <c r="G2" s="110" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="111"/>
-      <c r="I2" s="110" t="s">
+      <c r="H2" s="117"/>
+      <c r="I2" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="111"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="96" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="57" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.200000000000003" thickBot="1">
-      <c r="A4" s="99">
+      <c r="A4" s="58">
         <v>610201</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="119" t="s">
+      <c r="G4" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="120" t="s">
+      <c r="H4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="68" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="23.4" thickBot="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="117" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I5" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="63" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" thickBot="1">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="115" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="115" t="s">
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="63" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.8" thickBot="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="115" t="s">
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="63" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="22.2" thickBot="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="115" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="63" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="115" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="63" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3379,7 +3608,372 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J562"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" thickBot="1">
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="135" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="136"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A2" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="136"/>
+      <c r="E2" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="136"/>
+      <c r="G2" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="136"/>
+      <c r="I2" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="136"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" thickBot="1">
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.8" customHeight="1" thickBot="1">
+      <c r="A4" s="131">
+        <v>610201</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="124">
+        <v>2142</v>
+      </c>
+      <c r="D4" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="140">
+        <v>342</v>
+      </c>
+      <c r="F4" s="141" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="140">
+        <v>2141</v>
+      </c>
+      <c r="H4" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="143">
+        <v>12</v>
+      </c>
+      <c r="J4" s="144" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" thickBot="1">
+      <c r="A5" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="138"/>
+      <c r="C5" s="143">
+        <v>2316</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="124">
+        <v>2198</v>
+      </c>
+      <c r="F5" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="143">
+        <v>4732</v>
+      </c>
+      <c r="H5" s="144" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="124">
+        <v>22</v>
+      </c>
+      <c r="J5" s="125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" thickBot="1">
+      <c r="A6" s="132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="138"/>
+      <c r="C6" s="124">
+        <v>2318</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="143">
+        <v>3706</v>
+      </c>
+      <c r="F6" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="124">
+        <v>40</v>
+      </c>
+      <c r="J6" s="125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.8" thickBot="1">
+      <c r="A7" s="123"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="124">
+        <v>12656</v>
+      </c>
+      <c r="D7" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="124">
+        <v>4730</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="124">
+        <v>2120</v>
+      </c>
+      <c r="J7" s="125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="22.2" thickBot="1">
+      <c r="A8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="124">
+        <v>2323</v>
+      </c>
+      <c r="J8" s="125" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1">
+      <c r="A9" s="121"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="124">
+        <v>4729</v>
+      </c>
+      <c r="J9" s="125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="G13" s="142" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.8" customHeight="1"/>
+    <row r="17" ht="21.6" customHeight="1"/>
+    <row r="18" ht="13.8" customHeight="1"/>
+    <row r="19" ht="22.2" customHeight="1"/>
+    <row r="24" ht="13.8" customHeight="1"/>
+    <row r="25" ht="13.8" customHeight="1"/>
+    <row r="26" ht="21.6" customHeight="1"/>
+    <row r="27" ht="21.6" customHeight="1"/>
+    <row r="29" ht="13.8" customHeight="1"/>
+    <row r="30" ht="24" customHeight="1"/>
+    <row r="31" ht="24" customHeight="1"/>
+    <row r="36" ht="13.8" customHeight="1"/>
+    <row r="37" ht="13.8" customHeight="1"/>
+    <row r="40" ht="21.6" customHeight="1"/>
+    <row r="42" ht="13.8" customHeight="1"/>
+    <row r="43" ht="22.2" customHeight="1"/>
+    <row r="46" ht="13.8" customHeight="1"/>
+    <row r="47" ht="13.8" customHeight="1"/>
+    <row r="49" ht="13.8" customHeight="1"/>
+    <row r="54" ht="13.8" customHeight="1"/>
+    <row r="55" ht="22.2" customHeight="1"/>
+    <row r="57" ht="13.8" customHeight="1"/>
+    <row r="60" ht="13.8" customHeight="1"/>
+    <row r="61" ht="22.2" customHeight="1"/>
+    <row r="64" ht="13.8" customHeight="1"/>
+    <row r="69" ht="21.6" customHeight="1"/>
+    <row r="70" ht="21.6" customHeight="1"/>
+    <row r="73" ht="24.6" customHeight="1"/>
+    <row r="74" ht="13.8" customHeight="1"/>
+    <row r="76" ht="13.8" customHeight="1"/>
+    <row r="79" ht="13.8" customHeight="1"/>
+    <row r="81" ht="13.8" customHeight="1"/>
+    <row r="82" ht="22.2" customHeight="1"/>
+    <row r="85" ht="13.8" customHeight="1"/>
+    <row r="87" ht="13.8" customHeight="1"/>
+    <row r="89" ht="21.6" customHeight="1"/>
+    <row r="90" ht="24" customHeight="1"/>
+    <row r="92" ht="13.8" customHeight="1"/>
+    <row r="93" ht="13.8" customHeight="1"/>
+    <row r="96" ht="13.8" customHeight="1"/>
+    <row r="98" ht="13.8" customHeight="1"/>
+    <row r="99" ht="22.2" customHeight="1"/>
+    <row r="101" ht="13.8" customHeight="1"/>
+    <row r="104" ht="13.8" customHeight="1"/>
+    <row r="118" ht="28.8" customHeight="1"/>
+    <row r="122" ht="13.8" customHeight="1"/>
+    <row r="124" ht="13.8" customHeight="1"/>
+    <row r="132" ht="13.8" customHeight="1"/>
+    <row r="135" ht="13.8" customHeight="1"/>
+    <row r="138" ht="13.8" customHeight="1"/>
+    <row r="139" ht="13.8" customHeight="1"/>
+    <row r="142" ht="13.8" customHeight="1"/>
+    <row r="143" ht="24" customHeight="1"/>
+    <row r="145" ht="13.8" customHeight="1"/>
+    <row r="148" ht="13.8" customHeight="1"/>
+    <row r="149" ht="22.2" customHeight="1"/>
+    <row r="150" ht="13.8" customHeight="1"/>
+    <row r="151" ht="21.6" customHeight="1"/>
+    <row r="152" ht="22.2" customHeight="1"/>
+    <row r="155" ht="13.8" customHeight="1"/>
+    <row r="159" ht="13.8" customHeight="1"/>
+    <row r="160" ht="24.6" customHeight="1"/>
+    <row r="165" ht="13.8" customHeight="1"/>
+    <row r="166" ht="24.6" customHeight="1"/>
+    <row r="168" ht="13.8" customHeight="1"/>
+    <row r="171" ht="13.8" customHeight="1"/>
+    <row r="172" ht="13.8" customHeight="1"/>
+    <row r="173" ht="22.2" customHeight="1"/>
+    <row r="175" ht="18" customHeight="1"/>
+    <row r="179" ht="24.6" customHeight="1"/>
+    <row r="182" ht="24.6" customHeight="1"/>
+    <row r="185" ht="21.6" customHeight="1"/>
+    <row r="186" ht="21.6" customHeight="1"/>
+    <row r="187" ht="21.6" customHeight="1"/>
+    <row r="188" ht="22.2" customHeight="1"/>
+    <row r="190" ht="21.6" customHeight="1"/>
+    <row r="191" ht="21.6" customHeight="1"/>
+    <row r="192" ht="21.6" customHeight="1"/>
+    <row r="193" ht="22.2" customHeight="1"/>
+    <row r="194" ht="13.8" customHeight="1"/>
+    <row r="195" ht="21.6" customHeight="1"/>
+    <row r="198" ht="36.6" customHeight="1"/>
+    <row r="201" ht="13.8" customHeight="1"/>
+    <row r="204" ht="13.8" customHeight="1"/>
+    <row r="205" ht="22.2" customHeight="1"/>
+    <row r="208" ht="24.6" customHeight="1"/>
+    <row r="211" ht="21.6" customHeight="1"/>
+    <row r="216" ht="13.8" customHeight="1"/>
+    <row r="217" ht="24.6" customHeight="1"/>
+    <row r="219" ht="18" customHeight="1"/>
+    <row r="223" ht="24.6" customHeight="1"/>
+    <row r="226" ht="24.6" customHeight="1"/>
+    <row r="228" ht="13.8" customHeight="1"/>
+    <row r="229" ht="24.6" customHeight="1"/>
+    <row r="232" ht="48.6" customHeight="1"/>
+    <row r="235" ht="21.6" customHeight="1"/>
+    <row r="334" ht="18" customHeight="1"/>
+    <row r="344" ht="13.8" customHeight="1"/>
+    <row r="349" ht="13.8" customHeight="1"/>
+    <row r="354" ht="18" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="392" ht="18" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="464" ht="18" customHeight="1"/>
+    <row r="471" ht="18" customHeight="1"/>
+    <row r="525" ht="28.8" customHeight="1"/>
+    <row r="531" ht="15" customHeight="1"/>
+    <row r="539" ht="15" customHeight="1"/>
+    <row r="542" ht="15" customHeight="1"/>
+    <row r="545" ht="15" customHeight="1"/>
+    <row r="552" ht="18" customHeight="1"/>
+    <row r="562" ht="28.8" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3394,22 +3988,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.8">
       <c r="A1" s="2"/>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="92"/>
+      <c r="G1" s="120"/>
       <c r="H1" s="4" t="s">
         <v>83</v>
       </c>
@@ -3424,12 +4018,12 @@
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="120"/>
       <c r="H2" s="4">
         <v>18</v>
       </c>
@@ -3812,13 +4406,13 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="13.8">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
     </row>
     <row r="22" spans="1:7" ht="13.8">
       <c r="G22"/>
